--- a/data/output/FV2504_FV2410/ORDERS/17117.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17117.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="196">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="196">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -690,6 +690,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U72" totalsRowShown="0">
+  <autoFilter ref="A1:U72"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,7 +1009,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4448,5 +4481,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17117.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17117.xlsx
@@ -1363,7 +1363,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -2969,52 +2969,52 @@
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="2"/>
       <c r="L34" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P34" s="5"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5" t="s">
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="V34" s="5"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4487,7 +4487,7 @@
         <v>185</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4615,52 +4615,52 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="2"/>
       <c r="L65" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="5" t="s">
+      <c r="O65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P65" s="5"/>
+      <c r="P65" s="2"/>
       <c r="Q65" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5" t="s">
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="V65" s="5"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4779,48 +4779,48 @@
       <c r="V67" s="5"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K68" s="5"/>
+      <c r="K68" s="2"/>
       <c r="L68" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5" t="s">
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P68" s="5"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="V68" s="5"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -4879,48 +4879,48 @@
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5" t="s">
+      <c r="N70" s="2"/>
+      <c r="O70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P70" s="5"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="V70" s="5"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
